--- a/Spanungen_Messung/Version_Controll_Voltage.xlsx
+++ b/Spanungen_Messung/Version_Controll_Voltage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raj\Project\Project\STM32cubeIDE\Test\Spanungen Messung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raj\Project\Project\Test\Spanungen_Messung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B7A7C5-81D8-4978-8854-E1ADCFA82724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A21BA1A-445D-447A-B35D-5880118947DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,12 +56,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>V0.0</t>
-  </si>
-  <si>
-    <t>V0.1</t>
-  </si>
-  <si>
     <t>ADC_V0.0</t>
   </si>
   <si>
@@ -103,7 +97,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> This mesurement technich is use fro below component</t>
+      <t xml:space="preserve"> This mesurement technich is use for below component</t>
     </r>
     <r>
       <rPr>
@@ -130,6 +124,12 @@
 N401_Switching_regulator_(LT3471EDD)
 N404_Linear_Voltage_Regulator_(TPS79933DDCR)</t>
     </r>
+  </si>
+  <si>
+    <t>V1.0</t>
+  </si>
+  <si>
+    <t>V1.1</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -793,7 +793,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -838,19 +838,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="16">
         <v>45603</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -858,22 +858,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="12">
         <v>45604</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -895,7 +895,7 @@
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
